--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ngf-Sort1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ngf-Sort1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Sort1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.28149950086173</v>
+        <v>0.6726760000000001</v>
       </c>
       <c r="H2">
-        <v>3.28149950086173</v>
+        <v>2.018028</v>
       </c>
       <c r="I2">
-        <v>0.6570914666500535</v>
+        <v>0.1010994183758018</v>
       </c>
       <c r="J2">
-        <v>0.6570914666500535</v>
+        <v>0.1010994183758018</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.692386891585558</v>
+        <v>0.72097</v>
       </c>
       <c r="N2">
-        <v>0.692386891585558</v>
+        <v>2.16291</v>
       </c>
       <c r="O2">
-        <v>0.03236420459400174</v>
+        <v>0.03318293102712134</v>
       </c>
       <c r="P2">
-        <v>0.03236420459400174</v>
+        <v>0.03318293102712135</v>
       </c>
       <c r="Q2">
-        <v>2.272067239141213</v>
+        <v>0.48497921572</v>
       </c>
       <c r="R2">
-        <v>2.272067239141213</v>
+        <v>4.36481294148</v>
       </c>
       <c r="S2">
-        <v>0.02126624266363501</v>
+        <v>0.003354775026846314</v>
       </c>
       <c r="T2">
-        <v>0.02126624266363501</v>
+        <v>0.003354775026846315</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.28149950086173</v>
+        <v>0.6726760000000001</v>
       </c>
       <c r="H3">
-        <v>3.28149950086173</v>
+        <v>2.018028</v>
       </c>
       <c r="I3">
-        <v>0.6570914666500535</v>
+        <v>0.1010994183758018</v>
       </c>
       <c r="J3">
-        <v>0.6570914666500535</v>
+        <v>0.1010994183758018</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.83638860743015</v>
+        <v>1.851391</v>
       </c>
       <c r="N3">
-        <v>1.83638860743015</v>
+        <v>5.554173</v>
       </c>
       <c r="O3">
-        <v>0.08583821751573294</v>
+        <v>0.08521100719479757</v>
       </c>
       <c r="P3">
-        <v>0.08583821751573294</v>
+        <v>0.08521100719479759</v>
       </c>
       <c r="Q3">
-        <v>6.026108298670205</v>
+        <v>1.245386292316</v>
       </c>
       <c r="R3">
-        <v>6.026108298670205</v>
+        <v>11.208476630844</v>
       </c>
       <c r="S3">
-        <v>0.05640356024203926</v>
+        <v>0.008614783266610295</v>
       </c>
       <c r="T3">
-        <v>0.05640356024203926</v>
+        <v>0.008614783266610297</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -661,49 +661,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.28149950086173</v>
+        <v>0.6726760000000001</v>
       </c>
       <c r="H4">
-        <v>3.28149950086173</v>
+        <v>2.018028</v>
       </c>
       <c r="I4">
-        <v>0.6570914666500535</v>
+        <v>0.1010994183758018</v>
       </c>
       <c r="J4">
-        <v>0.6570914666500535</v>
+        <v>0.1010994183758018</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.80372812630416</v>
+        <v>8.824443666666665</v>
       </c>
       <c r="N4">
-        <v>8.80372812630416</v>
+        <v>26.473331</v>
       </c>
       <c r="O4">
-        <v>0.4115122076000008</v>
+        <v>0.4061485298191571</v>
       </c>
       <c r="P4">
-        <v>0.4115122076000008</v>
+        <v>0.4061485298191572</v>
       </c>
       <c r="Q4">
-        <v>28.88942945218948</v>
+        <v>5.935991467918666</v>
       </c>
       <c r="R4">
-        <v>28.88942945218948</v>
+        <v>53.423923211268</v>
       </c>
       <c r="S4">
-        <v>0.2704011600362858</v>
+        <v>0.04106138013890376</v>
       </c>
       <c r="T4">
-        <v>0.2704011600362858</v>
+        <v>0.04106138013890378</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -723,49 +723,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>3.28149950086173</v>
+        <v>0.6726760000000001</v>
       </c>
       <c r="H5">
-        <v>3.28149950086173</v>
+        <v>2.018028</v>
       </c>
       <c r="I5">
-        <v>0.6570914666500535</v>
+        <v>0.1010994183758018</v>
       </c>
       <c r="J5">
-        <v>0.6570914666500535</v>
+        <v>0.1010994183758018</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.409447860257229</v>
+        <v>8.620174666666665</v>
       </c>
       <c r="N5">
-        <v>8.409447860257229</v>
+        <v>25.860524</v>
       </c>
       <c r="O5">
-        <v>0.3930823855557118</v>
+        <v>0.3967469678429597</v>
       </c>
       <c r="P5">
-        <v>0.3930823855557118</v>
+        <v>0.3967469678429598</v>
       </c>
       <c r="Q5">
-        <v>27.59559895595684</v>
+        <v>5.798584614074667</v>
       </c>
       <c r="R5">
-        <v>27.59559895595684</v>
+        <v>52.187261526672</v>
       </c>
       <c r="S5">
-        <v>0.2582910812391044</v>
+        <v>0.04011088769128616</v>
       </c>
       <c r="T5">
-        <v>0.2582910812391044</v>
+        <v>0.04011088769128617</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>3.28149950086173</v>
+        <v>0.6726760000000001</v>
       </c>
       <c r="H6">
-        <v>3.28149950086173</v>
+        <v>2.018028</v>
       </c>
       <c r="I6">
-        <v>0.6570914666500535</v>
+        <v>0.1010994183758018</v>
       </c>
       <c r="J6">
-        <v>0.6570914666500535</v>
+        <v>0.1010994183758018</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.65164987961395</v>
+        <v>1.710155</v>
       </c>
       <c r="N6">
-        <v>1.65164987961395</v>
+        <v>5.130465</v>
       </c>
       <c r="O6">
-        <v>0.0772029847345527</v>
+        <v>0.07871056411596419</v>
       </c>
       <c r="P6">
-        <v>0.0772029847345527</v>
+        <v>0.07871056411596419</v>
       </c>
       <c r="Q6">
-        <v>5.419888255551514</v>
+        <v>1.15038022478</v>
       </c>
       <c r="R6">
-        <v>5.419888255551514</v>
+        <v>10.35342202302</v>
       </c>
       <c r="S6">
-        <v>0.05072942246898892</v>
+        <v>0.007957592252155234</v>
       </c>
       <c r="T6">
-        <v>0.05072942246898892</v>
+        <v>0.007957592252155234</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.71247723968443</v>
+        <v>3.536689</v>
       </c>
       <c r="H7">
-        <v>1.71247723968443</v>
+        <v>10.610067</v>
       </c>
       <c r="I7">
-        <v>0.3429085333499465</v>
+        <v>0.5315444595557087</v>
       </c>
       <c r="J7">
-        <v>0.3429085333499465</v>
+        <v>0.5315444595557088</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.692386891585558</v>
+        <v>0.72097</v>
       </c>
       <c r="N7">
-        <v>0.692386891585558</v>
+        <v>2.16291</v>
       </c>
       <c r="O7">
-        <v>0.03236420459400174</v>
+        <v>0.03318293102712134</v>
       </c>
       <c r="P7">
-        <v>0.03236420459400174</v>
+        <v>0.03318293102712135</v>
       </c>
       <c r="Q7">
-        <v>1.185696792896119</v>
+        <v>2.54984666833</v>
       </c>
       <c r="R7">
-        <v>1.185696792896119</v>
+        <v>22.94862001497</v>
       </c>
       <c r="S7">
-        <v>0.01109796193036674</v>
+        <v>0.01763820313928557</v>
       </c>
       <c r="T7">
-        <v>0.01109796193036674</v>
+        <v>0.01763820313928558</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.71247723968443</v>
+        <v>3.536689</v>
       </c>
       <c r="H8">
-        <v>1.71247723968443</v>
+        <v>10.610067</v>
       </c>
       <c r="I8">
-        <v>0.3429085333499465</v>
+        <v>0.5315444595557087</v>
       </c>
       <c r="J8">
-        <v>0.3429085333499465</v>
+        <v>0.5315444595557088</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.83638860743015</v>
+        <v>1.851391</v>
       </c>
       <c r="N8">
-        <v>1.83638860743015</v>
+        <v>5.554173</v>
       </c>
       <c r="O8">
-        <v>0.08583821751573294</v>
+        <v>0.08521100719479757</v>
       </c>
       <c r="P8">
-        <v>0.08583821751573294</v>
+        <v>0.08521100719479759</v>
       </c>
       <c r="Q8">
-        <v>3.144773693439918</v>
+        <v>6.547794184398998</v>
       </c>
       <c r="R8">
-        <v>3.144773693439918</v>
+        <v>58.93014765959099</v>
       </c>
       <c r="S8">
-        <v>0.02943465727369367</v>
+        <v>0.04529343876755628</v>
       </c>
       <c r="T8">
-        <v>0.02943465727369367</v>
+        <v>0.0452934387675563</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.71247723968443</v>
+        <v>3.536689</v>
       </c>
       <c r="H9">
-        <v>1.71247723968443</v>
+        <v>10.610067</v>
       </c>
       <c r="I9">
-        <v>0.3429085333499465</v>
+        <v>0.5315444595557087</v>
       </c>
       <c r="J9">
-        <v>0.3429085333499465</v>
+        <v>0.5315444595557088</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.80372812630416</v>
+        <v>8.824443666666665</v>
       </c>
       <c r="N9">
-        <v>8.80372812630416</v>
+        <v>26.473331</v>
       </c>
       <c r="O9">
-        <v>0.4115122076000008</v>
+        <v>0.4061485298191571</v>
       </c>
       <c r="P9">
-        <v>0.4115122076000008</v>
+        <v>0.4061485298191572</v>
       </c>
       <c r="Q9">
-        <v>15.07618404066553</v>
+        <v>31.20931284701966</v>
       </c>
       <c r="R9">
-        <v>15.07618404066553</v>
+        <v>280.8838156231769</v>
       </c>
       <c r="S9">
-        <v>0.141111047563715</v>
+        <v>0.2158860007820695</v>
       </c>
       <c r="T9">
-        <v>0.141111047563715</v>
+        <v>0.2158860007820696</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.71247723968443</v>
+        <v>3.536689</v>
       </c>
       <c r="H10">
-        <v>1.71247723968443</v>
+        <v>10.610067</v>
       </c>
       <c r="I10">
-        <v>0.3429085333499465</v>
+        <v>0.5315444595557087</v>
       </c>
       <c r="J10">
-        <v>0.3429085333499465</v>
+        <v>0.5315444595557088</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.409447860257229</v>
+        <v>8.620174666666665</v>
       </c>
       <c r="N10">
-        <v>8.409447860257229</v>
+        <v>25.860524</v>
       </c>
       <c r="O10">
-        <v>0.3930823855557118</v>
+        <v>0.3967469678429597</v>
       </c>
       <c r="P10">
-        <v>0.3930823855557118</v>
+        <v>0.3967469678429598</v>
       </c>
       <c r="Q10">
-        <v>14.40098805900344</v>
+        <v>30.48687692167866</v>
       </c>
       <c r="R10">
-        <v>14.40098805900344</v>
+        <v>274.3818922951079</v>
       </c>
       <c r="S10">
-        <v>0.1347913043166073</v>
+        <v>0.2108886526024522</v>
       </c>
       <c r="T10">
-        <v>0.1347913043166073</v>
+        <v>0.2108886526024522</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.536689</v>
+      </c>
+      <c r="H11">
+        <v>10.610067</v>
+      </c>
+      <c r="I11">
+        <v>0.5315444595557087</v>
+      </c>
+      <c r="J11">
+        <v>0.5315444595557088</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.710155</v>
+      </c>
+      <c r="N11">
+        <v>5.130465</v>
+      </c>
+      <c r="O11">
+        <v>0.07871056411596419</v>
+      </c>
+      <c r="P11">
+        <v>0.07871056411596419</v>
+      </c>
+      <c r="Q11">
+        <v>6.048286376795</v>
+      </c>
+      <c r="R11">
+        <v>54.434577391155</v>
+      </c>
+      <c r="S11">
+        <v>0.04183816426434515</v>
+      </c>
+      <c r="T11">
+        <v>0.04183816426434515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.444244</v>
+      </c>
+      <c r="H12">
+        <v>7.332732</v>
+      </c>
+      <c r="I12">
+        <v>0.3673561220684894</v>
+      </c>
+      <c r="J12">
+        <v>0.3673561220684895</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.72097</v>
+      </c>
+      <c r="N12">
+        <v>2.16291</v>
+      </c>
+      <c r="O12">
+        <v>0.03318293102712134</v>
+      </c>
+      <c r="P12">
+        <v>0.03318293102712135</v>
+      </c>
+      <c r="Q12">
+        <v>1.76222659668</v>
+      </c>
+      <c r="R12">
+        <v>15.86003937012</v>
+      </c>
+      <c r="S12">
+        <v>0.01218995286098945</v>
+      </c>
+      <c r="T12">
+        <v>0.01218995286098946</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.71247723968443</v>
-      </c>
-      <c r="H11">
-        <v>1.71247723968443</v>
-      </c>
-      <c r="I11">
-        <v>0.3429085333499465</v>
-      </c>
-      <c r="J11">
-        <v>0.3429085333499465</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.65164987961395</v>
-      </c>
-      <c r="N11">
-        <v>1.65164987961395</v>
-      </c>
-      <c r="O11">
-        <v>0.0772029847345527</v>
-      </c>
-      <c r="P11">
-        <v>0.0772029847345527</v>
-      </c>
-      <c r="Q11">
-        <v>2.828412826766419</v>
-      </c>
-      <c r="R11">
-        <v>2.828412826766419</v>
-      </c>
-      <c r="S11">
-        <v>0.02647356226556377</v>
-      </c>
-      <c r="T11">
-        <v>0.02647356226556377</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.444244</v>
+      </c>
+      <c r="H13">
+        <v>7.332732</v>
+      </c>
+      <c r="I13">
+        <v>0.3673561220684894</v>
+      </c>
+      <c r="J13">
+        <v>0.3673561220684895</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.851391</v>
+      </c>
+      <c r="N13">
+        <v>5.554173</v>
+      </c>
+      <c r="O13">
+        <v>0.08521100719479757</v>
+      </c>
+      <c r="P13">
+        <v>0.08521100719479759</v>
+      </c>
+      <c r="Q13">
+        <v>4.525251343403999</v>
+      </c>
+      <c r="R13">
+        <v>40.727262090636</v>
+      </c>
+      <c r="S13">
+        <v>0.03130278516063099</v>
+      </c>
+      <c r="T13">
+        <v>0.031302785160631</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.444244</v>
+      </c>
+      <c r="H14">
+        <v>7.332732</v>
+      </c>
+      <c r="I14">
+        <v>0.3673561220684894</v>
+      </c>
+      <c r="J14">
+        <v>0.3673561220684895</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>8.824443666666665</v>
+      </c>
+      <c r="N14">
+        <v>26.473331</v>
+      </c>
+      <c r="O14">
+        <v>0.4061485298191571</v>
+      </c>
+      <c r="P14">
+        <v>0.4061485298191572</v>
+      </c>
+      <c r="Q14">
+        <v>21.569093485588</v>
+      </c>
+      <c r="R14">
+        <v>194.121841370292</v>
+      </c>
+      <c r="S14">
+        <v>0.1492011488981838</v>
+      </c>
+      <c r="T14">
+        <v>0.1492011488981839</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.444244</v>
+      </c>
+      <c r="H15">
+        <v>7.332732</v>
+      </c>
+      <c r="I15">
+        <v>0.3673561220684894</v>
+      </c>
+      <c r="J15">
+        <v>0.3673561220684895</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>8.620174666666665</v>
+      </c>
+      <c r="N15">
+        <v>25.860524</v>
+      </c>
+      <c r="O15">
+        <v>0.3967469678429597</v>
+      </c>
+      <c r="P15">
+        <v>0.3967469678429598</v>
+      </c>
+      <c r="Q15">
+        <v>21.069810207952</v>
+      </c>
+      <c r="R15">
+        <v>189.628291871568</v>
+      </c>
+      <c r="S15">
+        <v>0.1457474275492214</v>
+      </c>
+      <c r="T15">
+        <v>0.1457474275492214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.444244</v>
+      </c>
+      <c r="H16">
+        <v>7.332732</v>
+      </c>
+      <c r="I16">
+        <v>0.3673561220684894</v>
+      </c>
+      <c r="J16">
+        <v>0.3673561220684895</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.710155</v>
+      </c>
+      <c r="N16">
+        <v>5.130465</v>
+      </c>
+      <c r="O16">
+        <v>0.07871056411596419</v>
+      </c>
+      <c r="P16">
+        <v>0.07871056411596419</v>
+      </c>
+      <c r="Q16">
+        <v>4.18003609782</v>
+      </c>
+      <c r="R16">
+        <v>37.62032488038</v>
+      </c>
+      <c r="S16">
+        <v>0.02891480759946381</v>
+      </c>
+      <c r="T16">
+        <v>0.02891480759946381</v>
       </c>
     </row>
   </sheetData>
